--- a/dados/limiares_climaticos_norte.xlsx
+++ b/dados/limiares_climaticos_norte.xlsx
@@ -16,9 +16,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="463">
   <si>
-    <t>Municipio</t>
-  </si>
-  <si>
     <t>UF</t>
   </si>
   <si>
@@ -1403,6 +1400,9 @@
   </si>
   <si>
     <t>Esperantina</t>
+  </si>
+  <si>
+    <t>NM_MUN</t>
   </si>
 </sst>
 </file>
@@ -1777,9 +1777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H451"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1791,36 +1789,36 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C2" s="3">
         <v>0.35110073280793719</v>
@@ -1843,10 +1841,10 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3">
         <v>0.51746941122973666</v>
@@ -1869,10 +1867,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C4" s="3">
         <v>0.66641570878800671</v>
@@ -1895,10 +1893,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="3">
         <v>0.33669199810605482</v>
@@ -1921,10 +1919,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3">
         <v>0.84179887850424784</v>
@@ -1947,10 +1945,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="3">
         <v>0.42741809984505069</v>
@@ -1973,10 +1971,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C8" s="3">
         <v>0.57566036756350902</v>
@@ -1999,10 +1997,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C9" s="3">
         <v>0.59703947340731922</v>
@@ -2025,10 +2023,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C10" s="3">
         <v>0.43588634728632769</v>
@@ -2051,10 +2049,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C11" s="3">
         <v>0.74053330227999581</v>
@@ -2077,10 +2075,10 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C12" s="3">
         <v>0.73677719297506461</v>
@@ -2103,10 +2101,10 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="3">
         <v>0.37479374269515198</v>
@@ -2129,10 +2127,10 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C14" s="3">
         <v>0.68391843472772529</v>
@@ -2155,10 +2153,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C15" s="3">
         <v>0.46050289757564761</v>
@@ -2181,10 +2179,10 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C16" s="3">
         <v>0.5164615813597031</v>
@@ -2207,10 +2205,10 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C17" s="3">
         <v>0.69338170054966497</v>
@@ -2233,10 +2231,10 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="3">
         <v>0.67541250369345818</v>
@@ -2259,10 +2257,10 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3">
         <v>0.72867440406533035</v>
@@ -2285,10 +2283,10 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C20" s="3">
         <v>0.74737733336961831</v>
@@ -2311,10 +2309,10 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C21" s="3">
         <v>0.62797758799591108</v>
@@ -2337,10 +2335,10 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C22" s="3">
         <v>0.51791700442052502</v>
@@ -2363,10 +2361,10 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="3">
         <v>0.36120624091709708</v>
@@ -2389,10 +2387,10 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="3">
         <v>0.60859354298107426</v>
@@ -2415,10 +2413,10 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C25" s="3">
         <v>0.32551522999845872</v>
@@ -2441,10 +2439,10 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="3">
         <v>0.70321587023862797</v>
@@ -2467,10 +2465,10 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C27" s="3">
         <v>0.53547677738442623</v>
@@ -2493,10 +2491,10 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C28" s="3">
         <v>0.38470904967718028</v>
@@ -2519,10 +2517,10 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3">
         <v>0.42606841818719232</v>
@@ -2545,10 +2543,10 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C30" s="3">
         <v>0.56704085636424928</v>
@@ -2571,10 +2569,10 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C31" s="3">
         <v>0.71157330231286586</v>
@@ -2597,10 +2595,10 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C32" s="3">
         <v>0.81262107766239211</v>
@@ -2623,10 +2621,10 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3">
         <v>0.60746402892893947</v>
@@ -2649,10 +2647,10 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B34" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C34" s="3">
         <v>0.63682076438388435</v>
@@ -2675,10 +2673,10 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C35" s="3">
         <v>0.67103040799195668</v>
@@ -2701,10 +2699,10 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C36" s="3">
         <v>0.72955955815192119</v>
@@ -2727,10 +2725,10 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B37" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C37" s="3">
         <v>0.63256757922253648</v>
@@ -2753,10 +2751,10 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C38" s="3">
         <v>0.62845682463188446</v>
@@ -2779,10 +2777,10 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B39" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C39" s="3">
         <v>0.55463153290237877</v>
@@ -2805,10 +2803,10 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C40" s="3">
         <v>0.64677454051740391</v>
@@ -2831,10 +2829,10 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B41" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C41" s="3">
         <v>0.67406823579655217</v>
@@ -2857,10 +2855,10 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C42" s="3">
         <v>0.71651173227026566</v>
@@ -2883,10 +2881,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" s="3">
         <v>0.77785191105464691</v>
@@ -2909,10 +2907,10 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3">
         <v>0.72724136000661233</v>
@@ -2935,10 +2933,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B45" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C45" s="3">
         <v>0.54672237294674808</v>
@@ -2961,10 +2959,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C46" s="3">
         <v>0.3880099002137295</v>
@@ -2987,10 +2985,10 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C47" s="3">
         <v>0.32331556698202141</v>
@@ -3013,10 +3011,10 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C48" s="3">
         <v>0.84368019445152354</v>
@@ -3039,10 +3037,10 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C49" s="3">
         <v>0.74249631565722929</v>
@@ -3065,10 +3063,10 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C50" s="3">
         <v>0.59086692573448651</v>
@@ -3091,10 +3089,10 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C51" s="3">
         <v>0.5654904155789211</v>
@@ -3117,10 +3115,10 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C52" s="3">
         <v>0.63911717714724325</v>
@@ -3143,10 +3141,10 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C53" s="3">
         <v>0.38170252388521669</v>
@@ -3169,10 +3167,10 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C54" s="3">
         <v>0.43492717333566061</v>
@@ -3195,10 +3193,10 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B55" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C55" s="3">
         <v>0.63432196155603426</v>
@@ -3221,10 +3219,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C56" s="3">
         <v>0.57313381269258079</v>
@@ -3247,10 +3245,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C57" s="3">
         <v>0.38028700762477458</v>
@@ -3273,10 +3271,10 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C58" s="3">
         <v>0.67366533424153374</v>
@@ -3299,10 +3297,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B59" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C59" s="3">
         <v>0.68823715580984413</v>
@@ -3325,10 +3323,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C60" s="3">
         <v>0.61897228055146147</v>
@@ -3351,10 +3349,10 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B61" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C61" s="3">
         <v>0.73801163758187016</v>
@@ -3377,10 +3375,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="3">
         <v>0.37250883675634761</v>
@@ -3403,10 +3401,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="3">
         <v>0.42052838309852619</v>
@@ -3429,10 +3427,10 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C64" s="3">
         <v>0.37387490359168402</v>
@@ -3455,10 +3453,10 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C65" s="3">
         <v>0.77696753374929806</v>
@@ -3481,10 +3479,10 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C66" s="3">
         <v>0.69599750406106331</v>
@@ -3507,10 +3505,10 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C67" s="3">
         <v>0.64329404690434977</v>
@@ -3533,10 +3531,10 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s">
         <v>309</v>
-      </c>
-      <c r="B68" t="s">
-        <v>310</v>
       </c>
       <c r="C68" s="3">
         <v>0.6104034834790486</v>
@@ -3559,10 +3557,10 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C69" s="3">
         <v>0.67089397578266308</v>
@@ -3585,10 +3583,10 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C70" s="3">
         <v>0.82141197591109716</v>
@@ -3611,10 +3609,10 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C71" s="3">
         <v>0.53981511632625256</v>
@@ -3637,10 +3635,10 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B72" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C72" s="3">
         <v>0.71779403238649309</v>
@@ -3663,10 +3661,10 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B73" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C73" s="3">
         <v>0.5856740263447211</v>
@@ -3689,10 +3687,10 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="3">
         <v>0.34210704988109703</v>
@@ -3715,10 +3713,10 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C75" s="3">
         <v>0.66252003672009252</v>
@@ -3741,10 +3739,10 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C76" s="3">
         <v>0.40288826090111313</v>
@@ -3767,10 +3765,10 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C77" s="3">
         <v>0.5082498946245888</v>
@@ -3793,10 +3791,10 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C78" s="3">
         <v>0.66783248569988274</v>
@@ -3819,10 +3817,10 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" s="3">
         <v>0.82280418489434304</v>
@@ -3845,10 +3843,10 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B80" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C80" s="3">
         <v>0.74400366624661807</v>
@@ -3871,10 +3869,10 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C81" s="3">
         <v>0.52930696260378696</v>
@@ -3897,10 +3895,10 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B82" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C82" s="3">
         <v>0.52533377083390498</v>
@@ -3923,10 +3921,10 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B83" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="3">
         <v>0.34193633336827922</v>
@@ -3949,10 +3947,10 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="3">
         <v>0.95482760178692772</v>
@@ -3975,10 +3973,10 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C85" s="3">
         <v>0.35992173494941149</v>
@@ -4001,10 +3999,10 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B86" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C86" s="3">
         <v>0.53124519434406636</v>
@@ -4027,10 +4025,10 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C87" s="3">
         <v>0.65855087285001268</v>
@@ -4053,10 +4051,10 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C88" s="3">
         <v>0.67579757045090894</v>
@@ -4079,10 +4077,10 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B89" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C89" s="3">
         <v>0.76206576345096755</v>
@@ -4105,10 +4103,10 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B90" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C90" s="3">
         <v>0.6573451702382318</v>
@@ -4131,10 +4129,10 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="3">
         <v>0.38470737339082822</v>
@@ -4157,10 +4155,10 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C92" s="3">
         <v>0.3325833010646253</v>
@@ -4183,10 +4181,10 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B93" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C93" s="3">
         <v>0.5185756923858289</v>
@@ -4209,10 +4207,10 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B94" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="3">
         <v>0.70668545872292299</v>
@@ -4235,10 +4233,10 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
         <v>31</v>
-      </c>
-      <c r="B95" t="s">
-        <v>32</v>
       </c>
       <c r="C95" s="3">
         <v>0.33688334792194752</v>
@@ -4261,10 +4259,10 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B96" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C96" s="3">
         <v>0.48794651007620621</v>
@@ -4287,10 +4285,10 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C97" s="3">
         <v>0.64432572420825984</v>
@@ -4313,10 +4311,10 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C98" s="3">
         <v>0.64512685603491349</v>
@@ -4339,10 +4337,10 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B99" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C99" s="3">
         <v>0.60362166840920395</v>
@@ -4365,10 +4363,10 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B100" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C100" s="3">
         <v>0.68500013578595897</v>
@@ -4391,10 +4389,10 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B101" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C101" s="3">
         <v>0.55799185266909457</v>
@@ -4417,10 +4415,10 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C102" s="3">
         <v>0.72947430747974629</v>
@@ -4443,10 +4441,10 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B103" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="3">
         <v>0.3788099999335337</v>
@@ -4469,10 +4467,10 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C104" s="3">
         <v>0.33399379635218729</v>
@@ -4495,10 +4493,10 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" s="3">
         <v>0.90469378296352687</v>
@@ -4521,10 +4519,10 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C106" s="3">
         <v>0.55219802290197428</v>
@@ -4547,10 +4545,10 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C107" s="3">
         <v>0.6059417823613984</v>
@@ -4573,10 +4571,10 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C108" s="3">
         <v>0.79305046148833469</v>
@@ -4599,10 +4597,10 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
+        <v>47</v>
+      </c>
+      <c r="B109" t="s">
         <v>48</v>
-      </c>
-      <c r="B109" t="s">
-        <v>49</v>
       </c>
       <c r="C109" s="3">
         <v>0.77660401249870503</v>
@@ -4625,10 +4623,10 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B110" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C110" s="3">
         <v>0.76539400789451406</v>
@@ -4651,10 +4649,10 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C111" s="3">
         <v>0.66613593324791154</v>
@@ -4677,10 +4675,10 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B112" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C112" s="3">
         <v>0.50422661849571959</v>
@@ -4703,10 +4701,10 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B113" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C113" s="3">
         <v>0.53520510895542373</v>
@@ -4729,10 +4727,10 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B114" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C114" s="3">
         <v>0.6894553653707115</v>
@@ -4755,10 +4753,10 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B115" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C115" s="3">
         <v>0.40166614852537208</v>
@@ -4781,10 +4779,10 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B116" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C116" s="3">
         <v>0.68830520389158401</v>
@@ -4807,10 +4805,10 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B117" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C117" s="3">
         <v>0.65866950946892322</v>
@@ -4833,10 +4831,10 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B118" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C118" s="3">
         <v>0.74711359053038606</v>
@@ -4859,10 +4857,10 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B119" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C119" s="3">
         <v>0.71278825690345471</v>
@@ -4885,10 +4883,10 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B120" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C120" s="3">
         <v>0.69712781792284062</v>
@@ -4911,10 +4909,10 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C121" s="3">
         <v>0.33398022618077761</v>
@@ -4937,10 +4935,10 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B122" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C122" s="3">
         <v>0.73954384755440117</v>
@@ -4963,10 +4961,10 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B123" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C123" s="3">
         <v>0.69463062454993896</v>
@@ -4989,10 +4987,10 @@
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B124" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C124" s="3">
         <v>0.68927428136807123</v>
@@ -5015,10 +5013,10 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C125" s="4">
         <v>0.56896674499752109</v>
@@ -5041,10 +5039,10 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B126" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C126" s="3">
         <v>0.67082258815419182</v>
@@ -5067,10 +5065,10 @@
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B127" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C127" s="3">
         <v>0.66358471411028752</v>
@@ -5093,10 +5091,10 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B128" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C128" s="3">
         <v>0.78365066623114288</v>
@@ -5119,10 +5117,10 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B129" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C129" s="3">
         <v>0.76144190617565144</v>
@@ -5145,10 +5143,10 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C130" s="3">
         <v>0.73786299494734386</v>
@@ -5171,10 +5169,10 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C131" s="3">
         <v>0.71699721245042281</v>
@@ -5197,10 +5195,10 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B132" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C132" s="3">
         <v>0.33485433919865493</v>
@@ -5223,10 +5221,10 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C133" s="3">
         <v>0.74504058337371237</v>
@@ -5249,10 +5247,10 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C134" s="3">
         <v>0.60697213465320665</v>
@@ -5275,10 +5273,10 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B135" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C135" s="3">
         <v>0.73372572801747538</v>
@@ -5301,10 +5299,10 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B136" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C136" s="3">
         <v>0.7007083268609513</v>
@@ -5327,10 +5325,10 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B137" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C137" s="3">
         <v>0.71147316960744966</v>
@@ -5353,10 +5351,10 @@
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" s="3">
         <v>0.84136704654084049</v>
@@ -5379,10 +5377,10 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B139" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C139" s="3">
         <v>0.63863790047303759</v>
@@ -5405,10 +5403,10 @@
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C140" s="3">
         <v>0.60862947970547943</v>
@@ -5431,10 +5429,10 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C141" s="3">
         <v>0.57799823699394992</v>
@@ -5457,10 +5455,10 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C142" s="3">
         <v>0.34820387608220932</v>
@@ -5483,10 +5481,10 @@
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C143" s="3">
         <v>0.46615120714482222</v>
@@ -5509,10 +5507,10 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C144" s="4">
         <v>0.5635547959837357</v>
@@ -5535,10 +5533,10 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C145" s="3">
         <v>0.36793568785945752</v>
@@ -5561,10 +5559,10 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B146" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C146" s="3">
         <v>0.61667758826998309</v>
@@ -5587,10 +5585,10 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B147" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C147" s="3">
         <v>0.79498044816304159</v>
@@ -5613,10 +5611,10 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B148" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C148" s="3">
         <v>0.68143154802791628</v>
@@ -5639,10 +5637,10 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B149" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C149" s="3">
         <v>0.6551370704492907</v>
@@ -5665,10 +5663,10 @@
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B150" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C150" s="3">
         <v>0.46046335461845089</v>
@@ -5691,10 +5689,10 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B151" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C151" s="3">
         <v>0.73561793187009705</v>
@@ -5717,10 +5715,10 @@
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C152" s="3">
         <v>0.85673621566042435</v>
@@ -5743,10 +5741,10 @@
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B153" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C153" s="3">
         <v>0.55119542653706155</v>
@@ -5769,10 +5767,10 @@
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C154" s="3">
         <v>0.76992717136688427</v>
@@ -5795,10 +5793,10 @@
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C155" s="3">
         <v>0.87170119265724111</v>
@@ -5821,10 +5819,10 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C156" s="3">
         <v>0.52057784296169096</v>
@@ -5847,10 +5845,10 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B157" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C157" s="3">
         <v>0.68843721579311357</v>
@@ -5873,10 +5871,10 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B158" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C158" s="3">
         <v>0.62764220628180922</v>
@@ -5899,10 +5897,10 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C159" s="3">
         <v>0.71989273532178899</v>
@@ -5925,10 +5923,10 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C160" s="3">
         <v>0.78197836271567578</v>
@@ -5951,10 +5949,10 @@
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B161" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C161" s="3">
         <v>0.40176208216427689</v>
@@ -5977,10 +5975,10 @@
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B162" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C162" s="3">
         <v>0.73899441096785701</v>
@@ -6003,10 +6001,10 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B163" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C163" s="3">
         <v>0.66856132061492168</v>
@@ -6029,10 +6027,10 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C164" s="3">
         <v>0.64370178145144585</v>
@@ -6055,10 +6053,10 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B165" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C165" s="3">
         <v>0.74599093865599997</v>
@@ -6081,10 +6079,10 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C166" s="3">
         <v>0.71718414820819909</v>
@@ -6107,10 +6105,10 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B167" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C167" s="3">
         <v>0.33189997307657571</v>
@@ -6133,10 +6131,10 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B168" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C168" s="3">
         <v>0.46353081779711219</v>
@@ -6159,10 +6157,10 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B169" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C169" s="3">
         <v>0.66811289455528922</v>
@@ -6185,10 +6183,10 @@
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B170" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C170" s="3">
         <v>0.64876684442677579</v>
@@ -6211,10 +6209,10 @@
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B171" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C171" s="3">
         <v>0.64418354667203026</v>
@@ -6237,10 +6235,10 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B172" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C172" s="3">
         <v>0.83433270616994371</v>
@@ -6263,10 +6261,10 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B173" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C173" s="3">
         <v>0.63442901340459024</v>
@@ -6289,10 +6287,10 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C174" s="3">
         <v>0.70232035267731319</v>
@@ -6315,10 +6313,10 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B175" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C175" s="3">
         <v>0.34520631198094881</v>
@@ -6341,10 +6339,10 @@
     </row>
     <row r="176" spans="1:8" s="2" customFormat="1">
       <c r="A176" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C176" s="3">
         <v>0.77421064582747157</v>
@@ -6367,10 +6365,10 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B177" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C177" s="3">
         <v>0.62885873833847761</v>
@@ -6393,10 +6391,10 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B178" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C178" s="3">
         <v>0.35255272065342069</v>
@@ -6419,10 +6417,10 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B179" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C179" s="3">
         <v>0.41442287076091228</v>
@@ -6445,10 +6443,10 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B180" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C180" s="3">
         <v>0.39047256144594478</v>
@@ -6471,10 +6469,10 @@
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B181" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C181" s="3">
         <v>0.74437421554109306</v>
@@ -6497,10 +6495,10 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B182" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C182" s="3">
         <v>0.36065358739969788</v>
@@ -6523,10 +6521,10 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B183" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C183" s="3">
         <v>0.72694070777852893</v>
@@ -6549,10 +6547,10 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B184" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C184" s="3">
         <v>0.53434303344490353</v>
@@ -6575,10 +6573,10 @@
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B185" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C185" s="3">
         <v>0.83999696340558927</v>
@@ -6601,10 +6599,10 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B186" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C186" s="3">
         <v>0.33240287520283118</v>
@@ -6627,10 +6625,10 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B187" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C187" s="3">
         <v>0.66196395305854239</v>
@@ -6653,10 +6651,10 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B188" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C188" s="3">
         <v>0.75345713541401693</v>
@@ -6679,10 +6677,10 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B189" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C189" s="3">
         <v>0.57099138722969656</v>
@@ -6705,10 +6703,10 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B190" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C190" s="3">
         <v>0.58445866153909165</v>
@@ -6731,10 +6729,10 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B191" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C191" s="3">
         <v>0.74111953551339305</v>
@@ -6757,10 +6755,10 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B192" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C192" s="3">
         <v>0.70322561070057255</v>
@@ -6783,10 +6781,10 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B193" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C193" s="3">
         <v>0.65812570677372584</v>
@@ -6809,10 +6807,10 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B194" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C194" s="3">
         <v>0.67315691180758819</v>
@@ -6835,10 +6833,10 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B195" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C195" s="3">
         <v>0.66475565480832977</v>
@@ -6861,10 +6859,10 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B196" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C196" s="3">
         <v>0.39300761098505349</v>
@@ -6887,10 +6885,10 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B197" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C197" s="3">
         <v>0.51873523773580033</v>
@@ -6913,10 +6911,10 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B198" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C198" s="3">
         <v>0.53751059358213382</v>
@@ -6939,10 +6937,10 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B199" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C199" s="3">
         <v>0.48430907497182751</v>
@@ -6965,10 +6963,10 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B200" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C200" s="3">
         <v>0.61030585540199311</v>
@@ -6991,10 +6989,10 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B201" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C201" s="3">
         <v>0.63009654088758715</v>
@@ -7017,10 +7015,10 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B202" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C202" s="3">
         <v>0.74476230129200505</v>
@@ -7043,10 +7041,10 @@
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B203" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C203" s="3">
         <v>0.61625595667012512</v>
@@ -7069,10 +7067,10 @@
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C204" s="3">
         <v>0.75628972158171415</v>
@@ -7095,10 +7093,10 @@
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B205" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C205" s="3">
         <v>0.75307423209405755</v>
@@ -7121,10 +7119,10 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B206" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C206" s="3">
         <v>0.65713288927146607</v>
@@ -7147,10 +7145,10 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B207" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C207" s="3">
         <v>0.55859731029130621</v>
@@ -7173,10 +7171,10 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B208" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C208" s="3">
         <v>0.68592078836426751</v>
@@ -7199,10 +7197,10 @@
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B209" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C209" s="3">
         <v>0.69771875365235836</v>
@@ -7225,10 +7223,10 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B210" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C210" s="3">
         <v>0.6943644029626288</v>
@@ -7251,10 +7249,10 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B211" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C211" s="3">
         <v>0.71770850812376175</v>
@@ -7277,10 +7275,10 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B212" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C212" s="3">
         <v>0.80799822944644006</v>
@@ -7303,10 +7301,10 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C213" s="3">
         <v>0.3444441514865737</v>
@@ -7329,10 +7327,10 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B214" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C214" s="3">
         <v>0.77043978562832116</v>
@@ -7355,10 +7353,10 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B215" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C215" s="3">
         <v>0.42225548214408448</v>
@@ -7381,10 +7379,10 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B216" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C216" s="3">
         <v>0.64337210253173782</v>
@@ -7407,10 +7405,10 @@
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B217" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C217" s="3">
         <v>0.52033134352902977</v>
@@ -7433,10 +7431,10 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C218" s="3">
         <v>0.3946252130946668</v>
@@ -7459,10 +7457,10 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B219" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C219" s="3">
         <v>0.61130904414216769</v>
@@ -7485,10 +7483,10 @@
     </row>
     <row r="220" spans="1:8" s="2" customFormat="1">
       <c r="A220" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B220" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C220" s="3">
         <v>0.32435421664587061</v>
@@ -7511,10 +7509,10 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B221" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C221" s="3">
         <v>0.36637434336906688</v>
@@ -7537,10 +7535,10 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B222" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C222" s="3">
         <v>0.80343322738272605</v>
@@ -7563,10 +7561,10 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B223" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C223" s="3">
         <v>0.78509309458126708</v>
@@ -7589,10 +7587,10 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B224" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C224" s="3">
         <v>0.76960665794536531</v>
@@ -7615,10 +7613,10 @@
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C225" s="3">
         <v>0.81016445278696203</v>
@@ -7641,10 +7639,10 @@
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B226" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C226" s="3">
         <v>0.65794875549576837</v>
@@ -7667,10 +7665,10 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C227" s="3">
         <v>0.79971758536728443</v>
@@ -7693,10 +7691,10 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B228" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C228" s="3">
         <v>0.65738869860202165</v>
@@ -7719,10 +7717,10 @@
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C229" s="3">
         <v>0.57286151863986345</v>
@@ -7745,10 +7743,10 @@
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B230" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C230" s="3">
         <v>0.38017378535554158</v>
@@ -7771,10 +7769,10 @@
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B231" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C231" s="3">
         <v>0.3580297634032803</v>
@@ -7797,10 +7795,10 @@
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C232" s="3">
         <v>0.80255096776193646</v>
@@ -7823,10 +7821,10 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B233" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C233" s="3">
         <v>0.69055320018629374</v>
@@ -7849,10 +7847,10 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B234" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C234" s="3">
         <v>0.38311005050071678</v>
@@ -7875,10 +7873,10 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B235" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C235" s="3">
         <v>0.61975170066016183</v>
@@ -7901,10 +7899,10 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B236" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C236" s="3">
         <v>0.63477868543309768</v>
@@ -7927,10 +7925,10 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B237" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C237" s="3">
         <v>0.53886960477280077</v>
@@ -7953,10 +7951,10 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C238" s="3">
         <v>0.38519714992341392</v>
@@ -7979,10 +7977,10 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B239" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C239" s="3">
         <v>0.47395604180134399</v>
@@ -8005,10 +8003,10 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B240" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C240" s="3">
         <v>0.337570169904712</v>
@@ -8031,10 +8029,10 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
+        <v>255</v>
+      </c>
+      <c r="B241" t="s">
         <v>256</v>
-      </c>
-      <c r="B241" t="s">
-        <v>257</v>
       </c>
       <c r="C241" s="3">
         <v>0.6875156202784698</v>
@@ -8057,10 +8055,10 @@
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B242" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C242" s="3">
         <v>0.75277635093764139</v>
@@ -8083,10 +8081,10 @@
     </row>
     <row r="243" spans="1:8">
       <c r="A243" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B243" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C243" s="3">
         <v>0.68085644412482971</v>
@@ -8109,10 +8107,10 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B244" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C244" s="3">
         <v>0.628695398202197</v>
@@ -8135,10 +8133,10 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B245" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C245" s="3">
         <v>0.44816648176131052</v>
@@ -8161,10 +8159,10 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C246" s="3">
         <v>0.39816387534123621</v>
@@ -8187,10 +8185,10 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C247" s="3">
         <v>0.41088705771147538</v>
@@ -8213,10 +8211,10 @@
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B248" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C248" s="3">
         <v>0.43569126341913739</v>
@@ -8239,10 +8237,10 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B249" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C249" s="3">
         <v>0.75592325375184188</v>
@@ -8265,10 +8263,10 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B250" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C250" s="3">
         <v>0.66576816274562545</v>
@@ -8291,10 +8289,10 @@
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B251" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C251" s="3">
         <v>0.70929079252915539</v>
@@ -8317,10 +8315,10 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B252" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C252" s="3">
         <v>0.34362408256875199</v>
@@ -8343,10 +8341,10 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B253" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C253" s="3">
         <v>0.54881094982492407</v>
@@ -8369,10 +8367,10 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B254" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C254" s="3">
         <v>0.63101397375678125</v>
@@ -8395,10 +8393,10 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B255" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C255" s="3">
         <v>0.6920071288941898</v>
@@ -8421,10 +8419,10 @@
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B256" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C256" s="3">
         <v>0.53568370791684039</v>
@@ -8447,10 +8445,10 @@
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B257" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C257" s="3">
         <v>0.63130145107175828</v>
@@ -8473,10 +8471,10 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B258" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C258" s="3">
         <v>0.55932581014842953</v>
@@ -8499,10 +8497,10 @@
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C259" s="3">
         <v>0.65447334216798225</v>
@@ -8525,10 +8523,10 @@
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B260" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C260" s="3">
         <v>0.32876548104009728</v>
@@ -8551,10 +8549,10 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B261" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C261" s="3">
         <v>0.55320061594421333</v>
@@ -8577,10 +8575,10 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B262" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C262" s="3">
         <v>0.64449615636095647</v>
@@ -8603,10 +8601,10 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B263" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C263" s="3">
         <v>0.62658245837059034</v>
@@ -8629,10 +8627,10 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B264" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C264" s="3">
         <v>0.69822820931276652</v>
@@ -8655,10 +8653,10 @@
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B265" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C265" s="3">
         <v>0.72190113889887542</v>
@@ -8681,10 +8679,10 @@
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B266" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C266" s="3">
         <v>0.34507438978124227</v>
@@ -8707,10 +8705,10 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B267" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C267" s="3">
         <v>0.63076551585222695</v>
@@ -8733,10 +8731,10 @@
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B268" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C268" s="3">
         <v>0.70778576384041791</v>
@@ -8759,10 +8757,10 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B269" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C269" s="3">
         <v>0.61666728657719894</v>
@@ -8785,10 +8783,10 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B270" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C270" s="3">
         <v>0.74242635468454909</v>
@@ -8811,10 +8809,10 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B271" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C271" s="3">
         <v>0.63821890255852942</v>
@@ -8837,10 +8835,10 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B272" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C272" s="3">
         <v>0.66828098941416703</v>
@@ -8863,10 +8861,10 @@
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B273" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C273" s="3">
         <v>0.76488325510795185</v>
@@ -8889,10 +8887,10 @@
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B274" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C274" s="3">
         <v>0.57012806417861306</v>
@@ -8915,10 +8913,10 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B275" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C275" s="3">
         <v>0.47018081183618499</v>
@@ -8941,10 +8939,10 @@
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B276" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C276" s="3">
         <v>0.44510043443283293</v>
@@ -8967,10 +8965,10 @@
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B277" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C277" s="3">
         <v>0.42857923573187051</v>
@@ -8993,10 +8991,10 @@
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B278" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C278" s="3">
         <v>0.36942656095997251</v>
@@ -9019,10 +9017,10 @@
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B279" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C279" s="3">
         <v>0.73151872757577663</v>
@@ -9045,10 +9043,10 @@
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B280" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C280" s="3">
         <v>0.51252591887607224</v>
@@ -9071,10 +9069,10 @@
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B281" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C281" s="3">
         <v>0.34741192504188773</v>
@@ -9097,10 +9095,10 @@
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B282" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C282" s="3">
         <v>0.56137778011397543</v>
@@ -9123,10 +9121,10 @@
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B283" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C283" s="3">
         <v>0.6287984326802345</v>
@@ -9149,10 +9147,10 @@
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B284" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C284" s="3">
         <v>0.46169688113883472</v>
@@ -9175,10 +9173,10 @@
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B285" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C285" s="3">
         <v>0.55615996774594478</v>
@@ -9201,10 +9199,10 @@
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B286" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C286" s="3">
         <v>0.52814031193785849</v>
@@ -9227,10 +9225,10 @@
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B287" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C287" s="3">
         <v>0.87188422559255407</v>
@@ -9253,10 +9251,10 @@
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B288" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C288" s="3">
         <v>0.63079884645826834</v>
@@ -9279,10 +9277,10 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B289" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C289" s="3">
         <v>0.60308313771917765</v>
@@ -9305,10 +9303,10 @@
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B290" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C290" s="3">
         <v>0.72382407660568404</v>
@@ -9331,10 +9329,10 @@
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B291" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C291" s="3">
         <v>0.3834055500216671</v>
@@ -9357,10 +9355,10 @@
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B292" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C292" s="3">
         <v>0.76477213711729419</v>
@@ -9383,10 +9381,10 @@
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B293" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C293" s="3">
         <v>0.81396734723390196</v>
@@ -9409,10 +9407,10 @@
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B294" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C294" s="3">
         <v>0.5994278337244463</v>
@@ -9435,10 +9433,10 @@
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B295" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C295" s="3">
         <v>0.69788935481075676</v>
@@ -9461,10 +9459,10 @@
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B296" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C296" s="3">
         <v>0.67235159885373896</v>
@@ -9487,10 +9485,10 @@
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B297" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C297" s="3">
         <v>0.63819301667694717</v>
@@ -9513,10 +9511,10 @@
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B298" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C298" s="3">
         <v>0.62852453780218376</v>
@@ -9539,10 +9537,10 @@
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B299" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C299" s="3">
         <v>0.74510229681166606</v>
@@ -9565,10 +9563,10 @@
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B300" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C300" s="3">
         <v>0.35522850864672151</v>
@@ -9591,10 +9589,10 @@
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B301" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C301" s="3">
         <v>0.71985063239769431</v>
@@ -9617,10 +9615,10 @@
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B302" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C302" s="3">
         <v>0.81279460424357119</v>
@@ -9643,10 +9641,10 @@
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B303" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C303" s="3">
         <v>0.35387314126892022</v>
@@ -9669,10 +9667,10 @@
     </row>
     <row r="304" spans="1:8">
       <c r="A304" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B304" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C304" s="3">
         <v>0.7007592013496371</v>
@@ -9695,10 +9693,10 @@
     </row>
     <row r="305" spans="1:8">
       <c r="A305" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B305" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C305" s="3">
         <v>0.55713105000929275</v>
@@ -9721,10 +9719,10 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B306" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C306" s="3">
         <v>0.71089762358415065</v>
@@ -9747,10 +9745,10 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B307" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C307" s="3">
         <v>0.73476786767203706</v>
@@ -9773,10 +9771,10 @@
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B308" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C308" s="3">
         <v>0.68898458545439345</v>
@@ -9799,10 +9797,10 @@
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B309" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C309" s="3">
         <v>0.63616674054986788</v>
@@ -9825,10 +9823,10 @@
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B310" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C310" s="3">
         <v>0.68571208877994394</v>
@@ -9851,10 +9849,10 @@
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B311" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C311" s="3">
         <v>0.46477556244283308</v>
@@ -9877,10 +9875,10 @@
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C312" s="3">
         <v>0.89748152811291071</v>
@@ -9903,10 +9901,10 @@
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B313" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C313" s="3">
         <v>0.3459929154401421</v>
@@ -9929,10 +9927,10 @@
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B314" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C314" s="3">
         <v>0.78998314798908531</v>
@@ -9955,10 +9953,10 @@
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B315" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C315" s="3">
         <v>0.68503440253407355</v>
@@ -9981,10 +9979,10 @@
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B316" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C316" s="3">
         <v>0.34807378525533039</v>
@@ -10007,10 +10005,10 @@
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C317" s="3">
         <v>0.92232713397049793</v>
@@ -10033,10 +10031,10 @@
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B318" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C318" s="3">
         <v>0.7627288015531466</v>
@@ -10059,10 +10057,10 @@
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B319" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C319" s="3">
         <v>0.4357780470337449</v>
@@ -10085,10 +10083,10 @@
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B320" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C320" s="3">
         <v>0.40717734856733928</v>
@@ -10111,10 +10109,10 @@
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B321" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C321" s="3">
         <v>0.7977322492834944</v>
@@ -10137,10 +10135,10 @@
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B322" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C322" s="3">
         <v>0.68062762077329886</v>
@@ -10163,10 +10161,10 @@
     </row>
     <row r="323" spans="1:8">
       <c r="A323" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C323" s="3">
         <v>0.80690950072693113</v>
@@ -10189,10 +10187,10 @@
     </row>
     <row r="324" spans="1:8">
       <c r="A324" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B324" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C324" s="3">
         <v>0.37218363455468761</v>
@@ -10215,10 +10213,10 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B325" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C325" s="3">
         <v>0.56578489324960124</v>
@@ -10241,10 +10239,10 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B326" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C326" s="3">
         <v>0.46245655512834283</v>
@@ -10267,10 +10265,10 @@
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B327" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C327" s="3">
         <v>0.69079695228913174</v>
@@ -10293,10 +10291,10 @@
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B328" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C328" s="3">
         <v>0.66989571286726068</v>
@@ -10319,10 +10317,10 @@
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B329" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C329" s="3">
         <v>0.67582333550689255</v>
@@ -10345,10 +10343,10 @@
     </row>
     <row r="330" spans="1:8">
       <c r="A330" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B330" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C330" s="3">
         <v>0.37922553950768467</v>
@@ -10371,10 +10369,10 @@
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B331" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C331" s="3">
         <v>0.73303906764879556</v>
@@ -10397,10 +10395,10 @@
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B332" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C332" s="3">
         <v>0.74598630789773779</v>
@@ -10423,10 +10421,10 @@
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B333" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C333" s="3">
         <v>0.38219951556686738</v>
@@ -10449,10 +10447,10 @@
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B334" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C334" s="3">
         <v>0.6160342705848727</v>
@@ -10475,10 +10473,10 @@
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B335" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C335" s="3">
         <v>0.66011306331441766</v>
@@ -10501,10 +10499,10 @@
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B336" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C336" s="3">
         <v>0.58042703011385477</v>
@@ -10527,10 +10525,10 @@
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C337" s="3">
         <v>0.9114613963487721</v>
@@ -10553,10 +10551,10 @@
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B338" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C338" s="3">
         <v>0.66692811960725606</v>
@@ -10579,10 +10577,10 @@
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B339" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C339" s="3">
         <v>0.74776181528767782</v>
@@ -10605,10 +10603,10 @@
     </row>
     <row r="340" spans="1:8">
       <c r="A340" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B340" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C340" s="3">
         <v>0.69595651825175331</v>
@@ -10631,10 +10629,10 @@
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B341" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C341" s="3">
         <v>0.61030405462695825</v>
@@ -10657,10 +10655,10 @@
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B342" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C342" s="3">
         <v>0.7148221489575235</v>
@@ -10683,10 +10681,10 @@
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B343" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C343" s="3">
         <v>0.68489531059416642</v>
@@ -10709,10 +10707,10 @@
     </row>
     <row r="344" spans="1:8">
       <c r="A344" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C344" s="3">
         <v>0.82520099497249655</v>
@@ -10735,10 +10733,10 @@
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B345" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C345" s="3">
         <v>0.70983885121889045</v>
@@ -10761,10 +10759,10 @@
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B346" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C346" s="3">
         <v>0.4891454923872498</v>
@@ -10787,10 +10785,10 @@
     </row>
     <row r="347" spans="1:8">
       <c r="A347" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B347" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C347" s="3">
         <v>0.51540121021671936</v>
@@ -10813,10 +10811,10 @@
     </row>
     <row r="348" spans="1:8">
       <c r="A348" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B348" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C348" s="3">
         <v>0.54701411941695</v>
@@ -10839,10 +10837,10 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B349" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C349" s="3">
         <v>0.41653335853565387</v>
@@ -10865,10 +10863,10 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B350" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C350" s="3">
         <v>0.44197620086009343</v>
@@ -10891,10 +10889,10 @@
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B351" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C351" s="3">
         <v>0.53575210548209995</v>
@@ -10917,10 +10915,10 @@
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B352" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C352" s="3">
         <v>0.72036722027771383</v>
@@ -10943,10 +10941,10 @@
     </row>
     <row r="353" spans="1:8">
       <c r="A353" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B353" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C353" s="3">
         <v>0.3550816233210341</v>
@@ -10969,10 +10967,10 @@
     </row>
     <row r="354" spans="1:8">
       <c r="A354" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B354" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C354" s="3">
         <v>0.35532561286358982</v>
@@ -10995,10 +10993,10 @@
     </row>
     <row r="355" spans="1:8">
       <c r="A355" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B355" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C355" s="3">
         <v>0.61472328116967567</v>
@@ -11021,10 +11019,10 @@
     </row>
     <row r="356" spans="1:8">
       <c r="A356" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B356" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C356" s="3">
         <v>0.62806315523187273</v>
@@ -11047,10 +11045,10 @@
     </row>
     <row r="357" spans="1:8">
       <c r="A357" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B357" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C357" s="3">
         <v>0.37200553332193742</v>
@@ -11073,10 +11071,10 @@
     </row>
     <row r="358" spans="1:8">
       <c r="A358" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B358" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C358" s="3">
         <v>0.36387021050511242</v>
@@ -11099,10 +11097,10 @@
     </row>
     <row r="359" spans="1:8">
       <c r="A359" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B359" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C359" s="3">
         <v>0.71247864833251207</v>
@@ -11125,10 +11123,10 @@
     </row>
     <row r="360" spans="1:8">
       <c r="A360" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B360" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C360" s="3">
         <v>0.66851243615618472</v>
@@ -11151,10 +11149,10 @@
     </row>
     <row r="361" spans="1:8">
       <c r="A361" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B361" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C361" s="3">
         <v>0.34529967432201758</v>
@@ -11177,10 +11175,10 @@
     </row>
     <row r="362" spans="1:8">
       <c r="A362" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B362" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C362" s="3">
         <v>0.71002251295373497</v>
@@ -11203,10 +11201,10 @@
     </row>
     <row r="363" spans="1:8">
       <c r="A363" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B363" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C363" s="3">
         <v>0.69758740932343066</v>
@@ -11229,10 +11227,10 @@
     </row>
     <row r="364" spans="1:8">
       <c r="A364" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B364" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C364" s="3">
         <v>0.7811565507960978</v>
@@ -11255,10 +11253,10 @@
     </row>
     <row r="365" spans="1:8">
       <c r="A365" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B365" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C365" s="3">
         <v>0.74271556730260957</v>
@@ -11281,10 +11279,10 @@
     </row>
     <row r="366" spans="1:8">
       <c r="A366" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B366" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C366" s="3">
         <v>0.76488434041262643</v>
@@ -11307,10 +11305,10 @@
     </row>
     <row r="367" spans="1:8">
       <c r="A367" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B367" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C367" s="3">
         <v>0.58328457622196872</v>
@@ -11333,10 +11331,10 @@
     </row>
     <row r="368" spans="1:8">
       <c r="A368" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B368" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C368" s="3">
         <v>0.45074593180491718</v>
@@ -11359,10 +11357,10 @@
     </row>
     <row r="369" spans="1:8">
       <c r="A369" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B369" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C369" s="3">
         <v>0.71348627309041923</v>
@@ -11385,10 +11383,10 @@
     </row>
     <row r="370" spans="1:8">
       <c r="A370" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B370" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C370" s="3">
         <v>0.44190824561353459</v>
@@ -11411,10 +11409,10 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B371" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C371" s="3">
         <v>0.37265533651841309</v>
@@ -11437,10 +11435,10 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B372" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C372" s="3">
         <v>0.64464106887484007</v>
@@ -11463,10 +11461,10 @@
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B373" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C373" s="3">
         <v>0.35305201346377579</v>
@@ -11489,10 +11487,10 @@
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B374" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C374" s="3">
         <v>0.52864088782865792</v>
@@ -11515,10 +11513,10 @@
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B375" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C375" s="3">
         <v>0.3535301038751566</v>
@@ -11541,10 +11539,10 @@
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B376" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C376" s="3">
         <v>0.55255302836600606</v>
@@ -11567,10 +11565,10 @@
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B377" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C377" s="3">
         <v>0.33012234173940241</v>
@@ -11593,10 +11591,10 @@
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B378" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C378" s="3">
         <v>0.73211494076777917</v>
@@ -11619,10 +11617,10 @@
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B379" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C379" s="3">
         <v>0.62020643372514606</v>
@@ -11645,10 +11643,10 @@
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B380" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C380" s="3">
         <v>0.55914154235387414</v>
@@ -11671,10 +11669,10 @@
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B381" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C381" s="3">
         <v>0.64142878979147966</v>
@@ -11697,10 +11695,10 @@
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B382" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C382" s="3">
         <v>0.37734487796467059</v>
@@ -11723,10 +11721,10 @@
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B383" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C383" s="3">
         <v>0.72689890038783567</v>
@@ -11749,10 +11747,10 @@
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B384" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C384" s="3">
         <v>0.53641445394199994</v>
@@ -11775,10 +11773,10 @@
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B385" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C385" s="3">
         <v>0.51389853231687788</v>
@@ -11801,10 +11799,10 @@
     </row>
     <row r="386" spans="1:8">
       <c r="A386" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B386" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C386" s="3">
         <v>0.35530164828259281</v>
@@ -11827,10 +11825,10 @@
     </row>
     <row r="387" spans="1:8">
       <c r="A387" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B387" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C387" s="3">
         <v>0.39146416738185691</v>
@@ -11853,10 +11851,10 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B388" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C388" s="3">
         <v>0.54923327794507593</v>
@@ -11879,10 +11877,10 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B389" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C389" s="3">
         <v>0.52807116999814596</v>
@@ -11905,10 +11903,10 @@
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B390" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C390" s="3">
         <v>0.34787455539706968</v>
@@ -11931,10 +11929,10 @@
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B391" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C391" s="3">
         <v>0.61967082120709982</v>
@@ -11957,10 +11955,10 @@
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B392" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C392" s="3">
         <v>0.60652979054967204</v>
@@ -11983,10 +11981,10 @@
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B393" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C393" s="3">
         <v>0.80683700088175314</v>
@@ -12009,10 +12007,10 @@
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B394" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C394" s="3">
         <v>0.74737577897459317</v>
@@ -12035,10 +12033,10 @@
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B395" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C395" s="3">
         <v>0.3461212450956701</v>
@@ -12061,10 +12059,10 @@
     </row>
     <row r="396" spans="1:8">
       <c r="A396" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B396" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C396" s="3">
         <v>0.51170359824126166</v>
@@ -12087,10 +12085,10 @@
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B397" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C397" s="3">
         <v>0.6576012219347902</v>
@@ -12113,10 +12111,10 @@
     </row>
     <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B398" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C398" s="3">
         <v>0.75152779919133472</v>
@@ -12139,10 +12137,10 @@
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B399" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C399" s="3">
         <v>0.57887084742717221</v>
@@ -12165,10 +12163,10 @@
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C400" s="3">
         <v>0.79480695853636973</v>
@@ -12191,10 +12189,10 @@
     </row>
     <row r="401" spans="1:8">
       <c r="A401" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C401" s="3">
         <v>0.91502203142923833</v>
@@ -12217,10 +12215,10 @@
     </row>
     <row r="402" spans="1:8">
       <c r="A402" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B402" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C402" s="3">
         <v>0.43527929774206342</v>
@@ -12243,10 +12241,10 @@
     </row>
     <row r="403" spans="1:8">
       <c r="A403" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B403" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C403" s="3">
         <v>0.62542305850640822</v>
@@ -12269,10 +12267,10 @@
     </row>
     <row r="404" spans="1:8">
       <c r="A404" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B404" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C404" s="3">
         <v>0.35041362720007818</v>
@@ -12295,10 +12293,10 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B405" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C405" s="3">
         <v>0.7164741525354934</v>
@@ -12321,10 +12319,10 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B406" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C406" s="3">
         <v>0.75061177000307455</v>
@@ -12347,10 +12345,10 @@
     </row>
     <row r="407" spans="1:8">
       <c r="A407" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B407" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C407" s="3">
         <v>0.58255757481850701</v>
@@ -12373,10 +12371,10 @@
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B408" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C408" s="3">
         <v>0.41168477374529999</v>
@@ -12399,10 +12397,10 @@
     </row>
     <row r="409" spans="1:8">
       <c r="A409" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B409" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C409" s="3">
         <v>0.77878471030521546</v>
@@ -12425,10 +12423,10 @@
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B410" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C410" s="3">
         <v>0.81143326997171705</v>
@@ -12451,10 +12449,10 @@
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B411" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C411" s="3">
         <v>0.69606081693728683</v>
@@ -12477,10 +12475,10 @@
     </row>
     <row r="412" spans="1:8">
       <c r="A412" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C412" s="3">
         <v>0.89434976748932904</v>
@@ -12503,10 +12501,10 @@
     </row>
     <row r="413" spans="1:8">
       <c r="A413" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B413" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C413" s="3">
         <v>0.37322946771903182</v>
@@ -12529,10 +12527,10 @@
     </row>
     <row r="414" spans="1:8">
       <c r="A414" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B414" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C414" s="3">
         <v>0.75014774009025942</v>
@@ -12555,10 +12553,10 @@
     </row>
     <row r="415" spans="1:8">
       <c r="A415" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B415" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C415" s="3">
         <v>0.74402562057469446</v>
@@ -12581,10 +12579,10 @@
     </row>
     <row r="416" spans="1:8">
       <c r="A416" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B416" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C416" s="3">
         <v>0.69952754547068885</v>
@@ -12607,10 +12605,10 @@
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
+        <v>7</v>
+      </c>
+      <c r="B417" t="s">
         <v>8</v>
-      </c>
-      <c r="B417" t="s">
-        <v>9</v>
       </c>
       <c r="C417" s="3">
         <v>0.77253589182756777</v>
@@ -12633,10 +12631,10 @@
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B418" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C418" s="3">
         <v>0.38729093149985871</v>
@@ -12659,10 +12657,10 @@
     </row>
     <row r="419" spans="1:8">
       <c r="A419" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B419" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C419" s="3">
         <v>0.66129354169810561</v>
@@ -12685,10 +12683,10 @@
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B420" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C420" s="3">
         <v>0.63136104970659057</v>
@@ -12711,10 +12709,10 @@
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B421" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C421" s="3">
         <v>0.35670916689061732</v>
@@ -12737,10 +12735,10 @@
     </row>
     <row r="422" spans="1:8">
       <c r="A422" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B422" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C422" s="3">
         <v>0.53753913253944852</v>
@@ -12763,10 +12761,10 @@
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B423" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C423" s="3">
         <v>0.63974975149988111</v>
@@ -12789,10 +12787,10 @@
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B424" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C424" s="3">
         <v>0.70880162357807386</v>
@@ -12815,10 +12813,10 @@
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B425" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C425" s="3">
         <v>0.53480984039471124</v>
@@ -12841,10 +12839,10 @@
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B426" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C426" s="3">
         <v>0.38719750303828349</v>
@@ -12867,10 +12865,10 @@
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B427" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C427" s="3">
         <v>0.60785757098858539</v>
@@ -12893,10 +12891,10 @@
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B428" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C428" s="3">
         <v>0.41089687659185081</v>
@@ -12919,10 +12917,10 @@
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B429" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C429" s="3">
         <v>0.59355497289121395</v>
@@ -12945,10 +12943,10 @@
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B430" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C430" s="3">
         <v>0.56950740221672369</v>
@@ -12971,10 +12969,10 @@
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B431" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C431" s="3">
         <v>0.5367209979810621</v>
@@ -12997,10 +12995,10 @@
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B432" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C432" s="3">
         <v>0.7369912621621495</v>
@@ -13023,10 +13021,10 @@
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B433" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C433" s="3">
         <v>0.66607442573913289</v>
@@ -13049,10 +13047,10 @@
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B434" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C434" s="3">
         <v>0.70377330482288869</v>
@@ -13075,10 +13073,10 @@
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B435" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C435" s="3">
         <v>0.53854073945149139</v>
@@ -13101,10 +13099,10 @@
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B436" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C436" s="3">
         <v>0.40745962520265883</v>
@@ -13127,10 +13125,10 @@
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B437" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C437" s="3">
         <v>0.4249928886809009</v>
@@ -13153,10 +13151,10 @@
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B438" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C438" s="3">
         <v>0.64745450881537003</v>
@@ -13179,10 +13177,10 @@
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B439" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C439" s="3">
         <v>0.67670093829272204</v>
@@ -13205,10 +13203,10 @@
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B440" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C440" s="3">
         <v>0.62860640984620098</v>
@@ -13231,10 +13229,10 @@
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B441" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C441" s="3">
         <v>0.62172971328475946</v>
@@ -13257,10 +13255,10 @@
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B442" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C442" s="3">
         <v>0.62297740138463098</v>
@@ -13283,10 +13281,10 @@
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B443" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C443" s="3">
         <v>0.35248337069613811</v>
@@ -13309,10 +13307,10 @@
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B444" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C444" s="3">
         <v>0.74638539559497374</v>
@@ -13335,10 +13333,10 @@
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B445" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C445" s="3">
         <v>0.35146891127714358</v>
@@ -13361,10 +13359,10 @@
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B446" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C446" s="3">
         <v>0.37442764617992452</v>
@@ -13387,10 +13385,10 @@
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B447" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C447" s="3">
         <v>0.55173941092470713</v>
@@ -13413,10 +13411,10 @@
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B448" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C448" s="3">
         <v>0.64570470331654084</v>
@@ -13439,10 +13437,10 @@
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B449" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C449" s="3">
         <v>0.59104393692023649</v>
@@ -13465,10 +13463,10 @@
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B450" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C450" s="3">
         <v>0.86688165649410642</v>
@@ -13491,10 +13489,10 @@
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B451" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C451" s="3">
         <v>0.58446230909770591</v>
